--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H2">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I2">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J2">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N2">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O2">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P2">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q2">
-        <v>1.790781799951222</v>
+        <v>2.880491312036666</v>
       </c>
       <c r="R2">
-        <v>16.117036199561</v>
+        <v>25.92442180833</v>
       </c>
       <c r="S2">
-        <v>0.001839479391738573</v>
+        <v>0.002084653458999993</v>
       </c>
       <c r="T2">
-        <v>0.002096536264064237</v>
+        <v>0.002472553711936146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H3">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I3">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J3">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P3">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q3">
-        <v>8.070168373934333</v>
+        <v>19.069993472257</v>
       </c>
       <c r="R3">
-        <v>72.631515365409</v>
+        <v>171.629941250313</v>
       </c>
       <c r="S3">
-        <v>0.008289624348492343</v>
+        <v>0.01380123164715929</v>
       </c>
       <c r="T3">
-        <v>0.009448052606698652</v>
+        <v>0.01636928497211413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H4">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I4">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J4">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N4">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O4">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P4">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q4">
-        <v>0.9976228993573335</v>
+        <v>1.405911691299</v>
       </c>
       <c r="R4">
-        <v>8.978606094216001</v>
+        <v>12.653205221691</v>
       </c>
       <c r="S4">
-        <v>0.001024751739237178</v>
+        <v>0.001017478739848281</v>
       </c>
       <c r="T4">
-        <v>0.00116795501630658</v>
+        <v>0.001206805296183278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H5">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I5">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J5">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N5">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O5">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P5">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q5">
-        <v>6.838340019327669</v>
+        <v>21.450000034375</v>
       </c>
       <c r="R5">
-        <v>41.03004011596601</v>
+        <v>128.70000020625</v>
       </c>
       <c r="S5">
-        <v>0.007024298292286101</v>
+        <v>0.01552367701313886</v>
       </c>
       <c r="T5">
-        <v>0.005337269579469966</v>
+        <v>0.01227482200331646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H6">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I6">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J6">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N6">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O6">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P6">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q6">
-        <v>1.810672162955334</v>
+        <v>1.957593105610667</v>
       </c>
       <c r="R6">
-        <v>16.296049466598</v>
+        <v>17.618337950496</v>
       </c>
       <c r="S6">
-        <v>0.001859910642961507</v>
+        <v>0.001416738603540654</v>
       </c>
       <c r="T6">
-        <v>0.002119822667435467</v>
+        <v>0.001680357125019737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H7">
         <v>22.398687</v>
       </c>
       <c r="I7">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J7">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N7">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O7">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P7">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q7">
-        <v>14.328930356271</v>
+        <v>9.75370735359</v>
       </c>
       <c r="R7">
-        <v>128.960373206439</v>
+        <v>87.78336618231</v>
       </c>
       <c r="S7">
-        <v>0.01471858385914782</v>
+        <v>0.007058899878562185</v>
       </c>
       <c r="T7">
-        <v>0.01677542295660549</v>
+        <v>0.008372379122090146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H8">
         <v>22.398687</v>
       </c>
       <c r="I8">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J8">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P8">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q8">
-        <v>64.573406205399</v>
+        <v>64.57340620539901</v>
       </c>
       <c r="R8">
-        <v>581.160655848591</v>
+        <v>581.1606558485911</v>
       </c>
       <c r="S8">
-        <v>0.06632938193387408</v>
+        <v>0.04673271328505332</v>
       </c>
       <c r="T8">
-        <v>0.07559853903331895</v>
+        <v>0.05542846615726489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H9">
         <v>22.398687</v>
       </c>
       <c r="I9">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J9">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N9">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O9">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P9">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q9">
-        <v>7.982473937976</v>
+        <v>4.760594536293</v>
       </c>
       <c r="R9">
-        <v>71.84226544178401</v>
+        <v>42.845350826637</v>
       </c>
       <c r="S9">
-        <v>0.008199545195510171</v>
+        <v>0.003445311508321376</v>
       </c>
       <c r="T9">
-        <v>0.009345385400036002</v>
+        <v>0.004086395137714048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H10">
         <v>22.398687</v>
       </c>
       <c r="I10">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J10">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N10">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O10">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P10">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q10">
-        <v>54.71693865333901</v>
+        <v>72.63240899062501</v>
       </c>
       <c r="R10">
-        <v>328.301631920034</v>
+        <v>435.7944539437501</v>
       </c>
       <c r="S10">
-        <v>0.05620488271356252</v>
+        <v>0.05256513081816967</v>
       </c>
       <c r="T10">
-        <v>0.0427061320921131</v>
+        <v>0.04156409746402044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H11">
         <v>22.398687</v>
       </c>
       <c r="I11">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J11">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N11">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O11">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P11">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q11">
-        <v>14.488082982378</v>
+        <v>6.628657475808001</v>
       </c>
       <c r="R11">
-        <v>130.392746841402</v>
+        <v>59.65791728227201</v>
       </c>
       <c r="S11">
-        <v>0.01488206439925208</v>
+        <v>0.004797255828450632</v>
       </c>
       <c r="T11">
-        <v>0.01696174898033629</v>
+        <v>0.005689901433993191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H12">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I12">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J12">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N12">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O12">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P12">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q12">
-        <v>55.80895631242089</v>
+        <v>41.30871013804443</v>
       </c>
       <c r="R12">
-        <v>502.280606811788</v>
+        <v>371.7783912423999</v>
       </c>
       <c r="S12">
-        <v>0.05732659613467862</v>
+        <v>0.0298957143582616</v>
       </c>
       <c r="T12">
-        <v>0.06533766468463893</v>
+        <v>0.03545853589639848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H13">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I13">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J13">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P13">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q13">
-        <v>251.5033792654413</v>
+        <v>273.4800238376266</v>
       </c>
       <c r="R13">
-        <v>2263.530413388972</v>
+        <v>2461.32021453864</v>
       </c>
       <c r="S13">
-        <v>0.2583426317622789</v>
+        <v>0.1979214709928803</v>
       </c>
       <c r="T13">
-        <v>0.2944445577786538</v>
+        <v>0.2347495530552401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H14">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I14">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J14">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N14">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O14">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P14">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q14">
-        <v>31.09049511672534</v>
+        <v>20.16197663672</v>
       </c>
       <c r="R14">
-        <v>279.8144560505281</v>
+        <v>181.45778973048</v>
       </c>
       <c r="S14">
-        <v>0.03193595392119953</v>
+        <v>0.01459151574607504</v>
       </c>
       <c r="T14">
-        <v>0.03639882339752515</v>
+        <v>0.01730662056322748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H15">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I15">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J15">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N15">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O15">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P15">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q15">
-        <v>213.1139703332547</v>
+        <v>307.6113544166666</v>
       </c>
       <c r="R15">
-        <v>1278.683821999528</v>
+        <v>1845.6681265</v>
       </c>
       <c r="S15">
-        <v>0.2189092811476448</v>
+        <v>0.2226228113699702</v>
       </c>
       <c r="T15">
-        <v>0.166333745851318</v>
+        <v>0.1760314506113099</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H16">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I16">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J16">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N16">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O16">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P16">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q16">
-        <v>56.42883105090934</v>
+        <v>28.07356017009777</v>
       </c>
       <c r="R16">
-        <v>507.859479458184</v>
+        <v>252.66204153088</v>
       </c>
       <c r="S16">
-        <v>0.05796332742541426</v>
+        <v>0.02031724382242948</v>
       </c>
       <c r="T16">
-        <v>0.06606337558278061</v>
+        <v>0.02409775898846885</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H17">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I17">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J17">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N17">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O17">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P17">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q17">
-        <v>1.748930874119167</v>
+        <v>1.201765289141667</v>
       </c>
       <c r="R17">
-        <v>10.493585244715</v>
+        <v>7.210591734849999</v>
       </c>
       <c r="S17">
-        <v>0.001796490393528214</v>
+        <v>0.0008697350193165279</v>
       </c>
       <c r="T17">
-        <v>0.001365026530510221</v>
+        <v>0.0006877135193630745</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H18">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I18">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J18">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P18">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q18">
-        <v>7.881566938472501</v>
+        <v>7.956162243347499</v>
       </c>
       <c r="R18">
-        <v>47.28940163083501</v>
+        <v>47.736973460085</v>
       </c>
       <c r="S18">
-        <v>0.008095894183380208</v>
+        <v>0.005757990337152726</v>
       </c>
       <c r="T18">
-        <v>0.006151499828960153</v>
+        <v>0.004552935907230322</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H19">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I19">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J19">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N19">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O19">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P19">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q19">
-        <v>0.9743082543400002</v>
+        <v>0.5865582246825</v>
       </c>
       <c r="R19">
-        <v>5.845849526040001</v>
+        <v>3.519349348095</v>
       </c>
       <c r="S19">
-        <v>0.001000803087851368</v>
+        <v>0.000424500718637718</v>
       </c>
       <c r="T19">
-        <v>0.0007604397839560247</v>
+        <v>0.0003356595706769554</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H20">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I20">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J20">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N20">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O20">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P20">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q20">
-        <v>6.678526656822502</v>
+        <v>8.949121070312501</v>
       </c>
       <c r="R20">
-        <v>26.71410662729001</v>
+        <v>35.79648428125</v>
       </c>
       <c r="S20">
-        <v>0.006860139048060641</v>
+        <v>0.006476609082721368</v>
       </c>
       <c r="T20">
-        <v>0.003475024353901855</v>
+        <v>0.003414106233043513</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H21">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I21">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J21">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N21">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O21">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P21">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q21">
-        <v>1.768356395395</v>
+        <v>0.8167243673866666</v>
       </c>
       <c r="R21">
-        <v>10.61013837237</v>
+        <v>4.90034620432</v>
       </c>
       <c r="S21">
-        <v>0.001816444162357922</v>
+        <v>0.0005910753038579283</v>
       </c>
       <c r="T21">
-        <v>0.00138018799418091</v>
+        <v>0.0004673727841201229</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H22">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I22">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J22">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N22">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O22">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P22">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q22">
-        <v>15.691401718842</v>
+        <v>29.96672179051111</v>
       </c>
       <c r="R22">
-        <v>141.222615469578</v>
+        <v>269.7004961146</v>
       </c>
       <c r="S22">
-        <v>0.01611810556154149</v>
+        <v>0.02168735242298284</v>
       </c>
       <c r="T22">
-        <v>0.01837051992512333</v>
+        <v>0.02572280946936697</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H23">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I23">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J23">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>25.946193</v>
       </c>
       <c r="O23">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P23">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q23">
-        <v>70.713391155498</v>
+        <v>198.3915683210066</v>
       </c>
       <c r="R23">
-        <v>636.4205203994821</v>
+        <v>1785.52411488906</v>
       </c>
       <c r="S23">
-        <v>0.07263633445126048</v>
+        <v>0.143578863580879</v>
       </c>
       <c r="T23">
-        <v>0.08278685260063455</v>
+        <v>0.1702951877060529</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H24">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I24">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J24">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N24">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O24">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P24">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q24">
-        <v>8.741490268752003</v>
+        <v>14.62617309038</v>
       </c>
       <c r="R24">
-        <v>78.67341241876801</v>
+        <v>131.63555781342</v>
       </c>
       <c r="S24">
-        <v>0.008979201822852214</v>
+        <v>0.01058517420183948</v>
       </c>
       <c r="T24">
-        <v>0.01023399464463085</v>
+        <v>0.01255480216688093</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H25">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I25">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J25">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N25">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O25">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P25">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q25">
-        <v>59.91971793337802</v>
+        <v>223.1515786041666</v>
       </c>
       <c r="R25">
-        <v>359.5183076002681</v>
+        <v>1338.909471625</v>
       </c>
       <c r="S25">
-        <v>0.0615491436758176</v>
+        <v>0.1614980431548558</v>
       </c>
       <c r="T25">
-        <v>0.04676685962270743</v>
+        <v>0.127699109684642</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H26">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I26">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J26">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N26">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O26">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P26">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q26">
-        <v>15.865687428156</v>
+        <v>20.36550074972444</v>
       </c>
       <c r="R26">
-        <v>142.791186853404</v>
+        <v>183.28950674752</v>
       </c>
       <c r="S26">
-        <v>0.01629713070607131</v>
+        <v>0.01473880910689571</v>
       </c>
       <c r="T26">
-        <v>0.01857456282409345</v>
+        <v>0.01748132142032601</v>
       </c>
     </row>
   </sheetData>
